--- a/2425-ofimatica/BLOQUE 3-FUNCIÓN BUSCAR, BUSCARV, BUSCARH-20241014/19-Coches-alumnos.xlsx
+++ b/2425-ofimatica/BLOQUE 3-FUNCIÓN BUSCAR, BUSCARV, BUSCARH-20241014/19-Coches-alumnos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2425-ofimatica\BLOQUE 3-FUNCIÓN BUSCAR, BUSCARV, BUSCARH-20241014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC20 1-SMRA\Desktop\grado-medio\2425-ofimatica\BLOQUE 3-FUNCIÓN BUSCAR, BUSCARV, BUSCARH-20241014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -365,13 +365,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -384,10 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +393,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -786,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,13 +800,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K3" s="3"/>
@@ -821,10 +824,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1082,35 +1085,35 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="2:14" ht="27" x14ac:dyDescent="0.4">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -1121,10 +1124,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
@@ -1161,12 +1164,12 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -1179,10 +1182,10 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -1207,12 +1210,12 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -1225,10 +1228,10 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1253,12 +1256,12 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1271,10 +1274,10 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1317,11 +1320,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J23:M23"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="J27:M27"/>
     <mergeCell ref="J26:M26"/>
@@ -1330,6 +1328,11 @@
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J23:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
